--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/127.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/127.xlsx
@@ -479,13 +479,13 @@
         <v>-11.60120699978884</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.46138602555842</v>
+        <v>-21.4636349687172</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04177180937485681</v>
+        <v>-0.05348098082111811</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.84875544433244</v>
+        <v>-8.874417841376877</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-11.31363946968395</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.61163987359932</v>
+        <v>-21.61590797659414</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1671112784219553</v>
+        <v>-0.1816071837823582</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.349367837911414</v>
+        <v>-8.381029046381554</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-10.90382126142094</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.85160210864124</v>
+        <v>-21.84731444961896</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3084280219101319</v>
+        <v>-0.3251435363881141</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.24094433262384</v>
+        <v>-8.282285774690473</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-10.40421684645387</v>
       </c>
       <c r="E5" t="n">
-        <v>-21.95188052848853</v>
+        <v>-21.95641752686103</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3286147312636237</v>
+        <v>-0.3471831793441667</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.782658606932967</v>
+        <v>-7.814099810094097</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-9.816639464593443</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.93728195398392</v>
+        <v>-21.93602547921913</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4660936043612721</v>
+        <v>-0.4772014279629028</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.060244285257014</v>
+        <v>-7.102543972669562</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-9.158818722804346</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.18943737215193</v>
+        <v>-22.19453660631412</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5638639636858372</v>
+        <v>-0.5866565136993946</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.483952600819414</v>
+        <v>-6.529366585606187</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-8.455099864746968</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.57481822744337</v>
+        <v>-22.5819366214416</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7384308428759023</v>
+        <v>-0.7602455915160768</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.075759639486951</v>
+        <v>-6.118166885050571</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-7.728708472634288</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.83179909538902</v>
+        <v>-22.84959019137772</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.8555861144277852</v>
+        <v>-0.8756701546370719</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.79461241059814</v>
+        <v>-5.826967858043384</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-7.001399442651111</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.31132755591663</v>
+        <v>-23.3284293019371</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.9449913830030588</v>
+        <v>-0.9679110471951562</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.504708970410684</v>
+        <v>-5.527437963334972</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-6.309703975551393</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.75674541553379</v>
+        <v>-23.76745234057233</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.187940801240663</v>
+        <v>-1.213026295474804</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.168403966049339</v>
+        <v>-5.173542312266466</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.67947695228499</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.23391737475156</v>
+        <v>-24.24517675756606</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.124677052382784</v>
+        <v>-1.145064211017819</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.99219438055199</v>
+        <v>-4.997034497350237</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-5.132696725188041</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.84892999357512</v>
+        <v>-24.85587727233301</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.048560104471785</v>
+        <v>-1.064160925384111</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.890380812548487</v>
+        <v>-4.893367995744172</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.699041662605613</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.43871533696541</v>
+        <v>-25.45723000597041</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.9547840637574896</v>
+        <v>-0.9782268516843468</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.765320016892803</v>
+        <v>-4.763691977606119</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.389176565363478</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.08013837088405</v>
+        <v>-26.09345113658265</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9163613587904049</v>
+        <v>-0.9353404834477688</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.748902731833702</v>
+        <v>-4.756319355250812</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.20261132150643</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.8405891659846</v>
+        <v>-26.86105943773637</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.8323877768442738</v>
+        <v>-0.8472699137471629</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.662773097859262</v>
+        <v>-4.675851191228259</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.138300371659976</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.63495500172094</v>
+        <v>-27.64325897988439</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.729254176986703</v>
+        <v>-0.738166836505089</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.684480288348364</v>
+        <v>-4.694668978659014</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.175855687711852</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.48234211692897</v>
+        <v>-28.49827539030825</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5789172158290683</v>
+        <v>-0.5869498541114095</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.901557082246255</v>
+        <v>-4.923210493659821</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-4.288980964167147</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.17109562632622</v>
+        <v>-29.17949005111671</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.3017985285985952</v>
+        <v>-0.3161037626911884</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.13325200667622</v>
+        <v>-5.161994478046814</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-4.455776019976068</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.59182644576888</v>
+        <v>-29.60176335222589</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1166860615965946</v>
+        <v>-0.1233742229905342</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.451438351588779</v>
+        <v>-5.484258254686379</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-4.647012159621597</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.19090334670974</v>
+        <v>-30.19666015229553</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3222098628600942</v>
+        <v>0.3054747923546443</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.731832673420086</v>
+        <v>-5.771981197811191</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-4.83895411557011</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.72828342549356</v>
+        <v>-30.74091417473424</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3424650183097228</v>
+        <v>0.3296118192566034</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.007822000064301</v>
+        <v>-6.045178901534398</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-5.017303062765484</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.08178551150928</v>
+        <v>-31.08742253642684</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6240424798028223</v>
+        <v>0.6136631182243619</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.306735879907481</v>
+        <v>-6.340455360268593</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-5.167836694381066</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.2862168891459</v>
+        <v>-31.290915224745</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8304416827033707</v>
+        <v>0.8177693769043272</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.526760744946121</v>
+        <v>-6.572678297440187</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-5.28620333848495</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.58183802286421</v>
+        <v>-31.5902544481856</v>
       </c>
       <c r="F25" t="n">
-        <v>1.053453730937696</v>
+        <v>1.040067630136083</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.551225335308164</v>
+        <v>-6.601758110284597</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-5.376074433457537</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.48854843833317</v>
+        <v>-31.4995535927906</v>
       </c>
       <c r="F26" t="n">
-        <v>1.084596704679944</v>
+        <v>1.068135418559042</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.68381031253203</v>
+        <v>-6.753639997612177</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-5.440794800103156</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.57517919551147</v>
+        <v>-31.59150847844696</v>
       </c>
       <c r="F27" t="n">
-        <v>1.336126329968985</v>
+        <v>1.320647734228332</v>
       </c>
       <c r="G27" t="n">
-        <v>-6.958836504823464</v>
+        <v>-7.024412753929394</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-5.491758206690315</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.40024564080639</v>
+        <v>-31.41272727533762</v>
       </c>
       <c r="F28" t="n">
-        <v>1.481896958712921</v>
+        <v>1.469654885518165</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.101947513831798</v>
+        <v>-7.173908805905919</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-5.542679855422286</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.20550916378686</v>
+        <v>-31.2168223256769</v>
       </c>
       <c r="F29" t="n">
-        <v>1.510326533644031</v>
+        <v>1.496666648457871</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.38023956271033</v>
+        <v>-7.459206801624741</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-5.601518464953877</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.07240839633854</v>
+        <v>-31.09389802602206</v>
       </c>
       <c r="F30" t="n">
-        <v>1.619058046364219</v>
+        <v>1.608121338002931</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.397893766506761</v>
+        <v>-7.479677073376513</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-5.680424274072464</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.80600641216034</v>
+        <v>-30.82206924422159</v>
       </c>
       <c r="F31" t="n">
-        <v>1.557857458404178</v>
+        <v>1.542706426123609</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.388242866951471</v>
+        <v>-7.458752123986118</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-5.789539389147292</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.4014606499506</v>
+        <v>-30.41746970293631</v>
       </c>
       <c r="F32" t="n">
-        <v>1.510443869808837</v>
+        <v>1.498475580998629</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.402416097858657</v>
+        <v>-7.46285400074746</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.92944671208709</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.89915186192659</v>
+        <v>-29.91515113689857</v>
       </c>
       <c r="F33" t="n">
-        <v>1.481505838163568</v>
+        <v>1.465699678962831</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.664603758117572</v>
+        <v>-7.7248901017935</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-6.103574475187417</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.30036830139775</v>
+        <v>-29.31934742605511</v>
       </c>
       <c r="F34" t="n">
-        <v>1.471014029427168</v>
+        <v>1.456190560606682</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.64841136737435</v>
+        <v>-7.712183572946388</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-6.311873276351096</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.85048188950423</v>
+        <v>-28.86440822556464</v>
       </c>
       <c r="F35" t="n">
-        <v>1.498416912916226</v>
+        <v>1.480611149906922</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.664090412396546</v>
+        <v>-7.717023689744634</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.543662603271627</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.2262217141919</v>
+        <v>-28.23775977039782</v>
       </c>
       <c r="F36" t="n">
-        <v>1.407046263580453</v>
+        <v>1.393156595071547</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.538022481326277</v>
+        <v>-7.576885196911384</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-6.792097742543419</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.56497620193135</v>
+        <v>-27.57851141744241</v>
       </c>
       <c r="F37" t="n">
-        <v>1.511402115154752</v>
+        <v>1.490491832784957</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.463098451090805</v>
+        <v>-7.501237593659609</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-7.048682833855862</v>
       </c>
       <c r="E38" t="n">
-        <v>-27.0237289187158</v>
+        <v>-27.0244158241806</v>
       </c>
       <c r="F38" t="n">
-        <v>1.376617084840774</v>
+        <v>1.349536875804932</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.43464443112536</v>
+        <v>-7.464462484006675</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-7.296644795779201</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.2714500985933</v>
+        <v>-26.26793490265598</v>
       </c>
       <c r="F39" t="n">
-        <v>1.430723723836922</v>
+        <v>1.410106781879142</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.397541758012343</v>
+        <v>-7.412859016526387</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-7.527650183142098</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.61028036593919</v>
+        <v>-25.6112532783057</v>
       </c>
       <c r="F40" t="n">
-        <v>1.452680253676237</v>
+        <v>1.42419689966959</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.100211916394043</v>
+        <v>-7.107520981660081</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-7.735709766336124</v>
       </c>
       <c r="E41" t="n">
-        <v>-25.0572016861057</v>
+        <v>-25.05178466649716</v>
       </c>
       <c r="F41" t="n">
-        <v>1.484590801496591</v>
+        <v>1.46265871669161</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.120017283211916</v>
+        <v>-7.119875502012775</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-7.910321187605481</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.35010951195066</v>
+        <v>-24.3530282490502</v>
       </c>
       <c r="F42" t="n">
-        <v>1.494549708484497</v>
+        <v>1.47419677289753</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.85472510359251</v>
+        <v>-6.858127852371883</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-8.052109108975547</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.64625386034151</v>
+        <v>-23.65658922085817</v>
       </c>
       <c r="F43" t="n">
-        <v>1.446813445435939</v>
+        <v>1.42365910891423</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.840781656008068</v>
+        <v>-6.832392120224442</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-8.164599810514307</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.96222802058458</v>
+        <v>-22.97014332270211</v>
       </c>
       <c r="F44" t="n">
-        <v>1.559392606560389</v>
+        <v>1.535495140994909</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.753708443708313</v>
+        <v>-6.75258886113579</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-8.246930826486373</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.14204333958406</v>
+        <v>-22.14255668530508</v>
       </c>
       <c r="F45" t="n">
-        <v>1.610956961985741</v>
+        <v>1.587059496420261</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.630637473847464</v>
+        <v>-6.620893683161702</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-8.306729036706473</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.62933318945068</v>
+        <v>-21.62513353255201</v>
       </c>
       <c r="F46" t="n">
-        <v>1.608967136190907</v>
+        <v>1.584629660007404</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.50356240736261</v>
+        <v>-6.497470704806434</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-8.352196759490813</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.96176863581465</v>
+        <v>-20.95632228216491</v>
       </c>
       <c r="F47" t="n">
-        <v>1.681916007652145</v>
+        <v>1.660384821410251</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.478472024121603</v>
+        <v>-6.4757977373654</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-8.386088905740522</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.32292699752174</v>
+        <v>-20.32041404799214</v>
       </c>
       <c r="F48" t="n">
-        <v>1.71930713217031</v>
+        <v>1.699267093022826</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.458617767235061</v>
+        <v>-6.462651197900265</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-8.415526205496342</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.57499694900736</v>
+        <v>-19.56310199530015</v>
       </c>
       <c r="F49" t="n">
-        <v>1.872557941420626</v>
+        <v>1.848836480102355</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.211786477545126</v>
+        <v>-6.22006845517768</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-8.447152272860905</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.18763604593482</v>
+        <v>-19.17778469709799</v>
       </c>
       <c r="F50" t="n">
-        <v>1.889322345967278</v>
+        <v>1.86054076254175</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.205259653377794</v>
+        <v>-6.221628048368226</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-8.482723322313747</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.60086233077455</v>
+        <v>-18.59222345564072</v>
       </c>
       <c r="F51" t="n">
-        <v>1.850171178977023</v>
+        <v>1.821976276375525</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.245813965338854</v>
+        <v>-6.26274459611898</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.525778604904147</v>
       </c>
       <c r="E52" t="n">
-        <v>-18.08226581637342</v>
+        <v>-18.0851503304249</v>
       </c>
       <c r="F52" t="n">
-        <v>1.865899114067888</v>
+        <v>1.834433465872424</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.270625675188447</v>
+        <v>-6.28315619978835</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.579845787117241</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.68677938388807</v>
+        <v>-17.68961011886401</v>
       </c>
       <c r="F53" t="n">
-        <v>1.961224969958996</v>
+        <v>1.925647666988456</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.178252779444956</v>
+        <v>-6.195408304540961</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.645156711426981</v>
       </c>
       <c r="E54" t="n">
-        <v>-17.06567017350146</v>
+        <v>-17.06778222446797</v>
       </c>
       <c r="F54" t="n">
-        <v>2.019829495272706</v>
+        <v>1.984516198672979</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.164235996757511</v>
+        <v>-6.186422309919571</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-8.722015981100531</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.81887310685959</v>
+        <v>-16.83233743177108</v>
       </c>
       <c r="F55" t="n">
-        <v>1.980384987870436</v>
+        <v>1.954082130926433</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.399431450104188</v>
+        <v>-6.422272890186415</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.811659811567678</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.26756424751193</v>
+        <v>-16.2742621869196</v>
       </c>
       <c r="F56" t="n">
-        <v>2.00579804556466</v>
+        <v>1.97660578556231</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.272366161633069</v>
+        <v>-6.30225266061052</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.914481324741727</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.1704979051762</v>
+        <v>-16.17754785307829</v>
       </c>
       <c r="F57" t="n">
-        <v>2.049085312364324</v>
+        <v>2.018304125130228</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.431713562446427</v>
+        <v>-6.473143006636665</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-9.029336664774036</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.91791714341077</v>
+        <v>-15.9361042489557</v>
       </c>
       <c r="F58" t="n">
-        <v>1.917248353191096</v>
+        <v>1.89009480905225</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.590958294115581</v>
+        <v>-6.625440459547932</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-9.156292783230915</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.64841552887895</v>
+        <v>-15.67001027221012</v>
       </c>
       <c r="F59" t="n">
-        <v>1.981299232154549</v>
+        <v>1.954663922743596</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.379298519826233</v>
+        <v>-6.409937925861189</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-9.296443434917952</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.3939916115247</v>
+        <v>-15.4229980892661</v>
       </c>
       <c r="F60" t="n">
-        <v>2.053964541217506</v>
+        <v>2.025363851046053</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.423553809985547</v>
+        <v>-6.452428284541546</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-9.446929296388676</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.2417577157027</v>
+        <v>-15.26548895503471</v>
       </c>
       <c r="F61" t="n">
-        <v>1.989762103041179</v>
+        <v>1.96373791948859</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.268699406482883</v>
+        <v>-6.294953373358216</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-9.604689494467031</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.18649727108596</v>
+        <v>-15.21797758630203</v>
       </c>
       <c r="F62" t="n">
-        <v>2.005509594159511</v>
+        <v>1.973946165826709</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.356031736146584</v>
+        <v>-6.381435015827075</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-9.768234346427628</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.09826536415875</v>
+        <v>-15.14423180672148</v>
       </c>
       <c r="F63" t="n">
-        <v>1.974151504115119</v>
+        <v>1.947799757102447</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.415589617799342</v>
+        <v>-6.437111026027502</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.928786766845334</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.1445104801129</v>
+        <v>-15.18733818026707</v>
       </c>
       <c r="F64" t="n">
-        <v>1.822548290178953</v>
+        <v>1.793986712062436</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.404687132486122</v>
+        <v>-6.429200612916834</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-10.07753832172214</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.15632720971023</v>
+        <v>-15.20878625339223</v>
       </c>
       <c r="F65" t="n">
-        <v>1.823237640147188</v>
+        <v>1.795076960593758</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.503474405239006</v>
+        <v>-6.530627949377851</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-10.20936008570411</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.15483117360895</v>
+        <v>-15.20796978924545</v>
       </c>
       <c r="F66" t="n">
-        <v>1.883367535603375</v>
+        <v>1.865781777903082</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.432388245394062</v>
+        <v>-6.465437931814408</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-10.31141133453693</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.01672650763234</v>
+        <v>-15.07399633407138</v>
       </c>
       <c r="F67" t="n">
-        <v>1.696983926815977</v>
+        <v>1.683221372485611</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.220748027132181</v>
+        <v>-6.24724644435086</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-10.3730043582861</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.12586869692935</v>
+        <v>-15.18675149944304</v>
       </c>
       <c r="F68" t="n">
-        <v>1.664706703480604</v>
+        <v>1.645351125294488</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.34675240111318</v>
+        <v>-6.373876611210824</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-10.39006107988831</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.03231266152406</v>
+        <v>-15.09219810663691</v>
       </c>
       <c r="F69" t="n">
-        <v>1.650176575072133</v>
+        <v>1.627506250230248</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.138862051118222</v>
+        <v>-6.18620230461056</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-10.35329543257501</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.06606636493325</v>
+        <v>-15.13382800010869</v>
       </c>
       <c r="F70" t="n">
-        <v>1.536516943430094</v>
+        <v>1.525594902089406</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.110808929715865</v>
+        <v>-6.152531714318116</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-10.25855665048283</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.07771197929024</v>
+        <v>-15.14783011577553</v>
       </c>
       <c r="F71" t="n">
-        <v>1.434722931454058</v>
+        <v>1.4204421423958</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.095711676510831</v>
+        <v>-6.145574657546496</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-10.11176557746006</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.19071648401211</v>
+        <v>-15.2628146682785</v>
       </c>
       <c r="F72" t="n">
-        <v>1.355139677674417</v>
+        <v>1.340247762757794</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.951916206541129</v>
+        <v>-6.00419435696905</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.913395405666513</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.30382365787819</v>
+        <v>-15.37167329517723</v>
       </c>
       <c r="F73" t="n">
-        <v>1.280748549187439</v>
+        <v>1.268672702226159</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.09609301904645</v>
+        <v>-6.14728092094305</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.66619176737515</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.44146386820244</v>
+        <v>-15.50311424479424</v>
       </c>
       <c r="F74" t="n">
-        <v>1.161060772078494</v>
+        <v>1.144619041985059</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.998063542357939</v>
+        <v>-6.052052845189281</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.381057762252871</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.67690866089933</v>
+        <v>-15.74165377883789</v>
       </c>
       <c r="F75" t="n">
-        <v>1.087070542154603</v>
+        <v>1.077942766334073</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.030218540521639</v>
+        <v>-6.084853192259413</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.061425563823002</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.69550155401421</v>
+        <v>-15.76133203147722</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9025447559766323</v>
+        <v>0.8865479255080866</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.138304704335394</v>
+        <v>-6.194293610975304</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-8.710675695417969</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.76925711160849</v>
+        <v>-15.83158217114792</v>
       </c>
       <c r="F77" t="n">
-        <v>0.743681366843098</v>
+        <v>0.7299628135745346</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.055406703899984</v>
+        <v>-6.117712207411948</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-8.340172476313937</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.92575422141844</v>
+        <v>-15.98670547002826</v>
       </c>
       <c r="F78" t="n">
-        <v>0.7583483874438428</v>
+        <v>0.7452654050679784</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.029573191615206</v>
+        <v>-6.088339054155523</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-7.953571975845826</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.03707201877122</v>
+        <v>-16.09960730560593</v>
       </c>
       <c r="F79" t="n">
-        <v>0.4812297002133697</v>
+        <v>0.4657168814246486</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.04311574063656</v>
+        <v>-6.103089187873006</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-7.553516543053855</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.53435246323261</v>
+        <v>-16.59258053501757</v>
       </c>
       <c r="F80" t="n">
-        <v>0.4701854337010089</v>
+        <v>0.4542521603217331</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.977446600400159</v>
+        <v>-6.04199126905717</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-7.150877778108303</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.0421833845128</v>
+        <v>-17.09054544044032</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2945478620070894</v>
+        <v>0.2781012429067875</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.053514658242488</v>
+        <v>-6.125969740010167</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-6.750257238853906</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.46824566594384</v>
+        <v>-17.51920867352456</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.01880325511409038</v>
+        <v>-0.03514720507018705</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.092348039786394</v>
+        <v>-6.171667287195222</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-6.355736618167972</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.97864331582916</v>
+        <v>-18.0228497159198</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.02493406972520172</v>
+        <v>-0.03928819388646401</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.115854384802521</v>
+        <v>-6.198439488798448</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-5.979551709527757</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.75748166575617</v>
+        <v>-18.80037292299962</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.1153562517287937</v>
+        <v>-0.1326780030582733</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.108256868131335</v>
+        <v>-6.197852807974418</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-5.628251308125854</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.44625962018775</v>
+        <v>-19.49234828792216</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.2799788909515538</v>
+        <v>-0.2938441144261246</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.19512474214268</v>
+        <v>-6.288040317648398</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-5.308941025199157</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.11897718706152</v>
+        <v>-20.15549806835737</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.4131652160200509</v>
+        <v>-0.4371653507297363</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.430202859324551</v>
+        <v>-6.527322980735817</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-5.034812924135058</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.86954241027717</v>
+        <v>-20.90744688051636</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.5074008233798365</v>
+        <v>-0.5340899118663252</v>
       </c>
       <c r="G87" t="n">
-        <v>-6.759101018282521</v>
+        <v>-6.855214004279201</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-4.813006084790181</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.7012064794012</v>
+        <v>-21.74525154226524</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6231333939334471</v>
+        <v>-0.6499398185847418</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.009271499662558</v>
+        <v>-7.109691700708991</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-4.651652876654194</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.69996213621579</v>
+        <v>-22.74299517465838</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8497535292355557</v>
+        <v>-0.8714607197246581</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.065275073323069</v>
+        <v>-7.169831374178912</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-4.561123659684609</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.78751193574729</v>
+        <v>-23.8265799896208</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.113715898987161</v>
+        <v>-1.132269680047103</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.447815415624829</v>
+        <v>-7.544607973576011</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-4.543161576806187</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.02258262848107</v>
+        <v>-25.05896172857779</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.068717479784075</v>
+        <v>-1.078715498826917</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.806164951949095</v>
+        <v>-7.906506928885657</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-4.600546836407291</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.27990808047306</v>
+        <v>-26.32315134621092</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.296007409026951</v>
+        <v>-1.303150248059514</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.115272411109792</v>
+        <v>-8.206403499109086</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-4.734524979386134</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.56620578715838</v>
+        <v>-27.60555984793361</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.559744884462678</v>
+        <v>-1.571018934297784</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.438504211109006</v>
+        <v>-8.526687227967551</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.936001668728</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.06412415607812</v>
+        <v>-29.10739431135375</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.828249141593647</v>
+        <v>-1.831519887187613</v>
       </c>
       <c r="G94" t="n">
-        <v>-8.768893517161384</v>
+        <v>-8.85729653932894</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-5.197331058421598</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.67650395376607</v>
+        <v>-30.7263864908292</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.095316030705743</v>
+        <v>-2.098195655750356</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.081692176506603</v>
+        <v>-9.159011820106864</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-5.509206085436192</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.51207180393555</v>
+        <v>-32.56820493627804</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.130311541859121</v>
+        <v>-2.123990055980199</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.445145835999927</v>
+        <v>-9.521057445622516</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-5.850552573263389</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.23306822268231</v>
+        <v>-34.28956069702951</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.48670547543662</v>
+        <v>-2.478672837154278</v>
       </c>
       <c r="G97" t="n">
-        <v>-9.841419398590851</v>
+        <v>-9.903548897855607</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-6.209273882512758</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.22234889325104</v>
+        <v>-36.28092897353041</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.875938868139186</v>
+        <v>-2.870536515551245</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.30852000366277</v>
+        <v>-10.36742275839536</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-6.561526359849201</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.27595911617463</v>
+        <v>-38.32879216888195</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.143367543759434</v>
+        <v>-3.139524784362039</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.66828246297158</v>
+        <v>-10.72105929209992</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-6.894954238165086</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.48127766668202</v>
+        <v>-40.5321062265739</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.506620753971214</v>
+        <v>-3.501770859159235</v>
       </c>
       <c r="G100" t="n">
-        <v>-10.82789875916261</v>
+        <v>-10.8886788925321</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-7.176224289896543</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.38946193584579</v>
+        <v>-42.44351724026983</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.953031081982351</v>
+        <v>-3.947345166996129</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.11002867843168</v>
+        <v>-11.16212593560552</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-7.416100561442522</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.61884662265557</v>
+        <v>-44.68702382341471</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.180076560881882</v>
+        <v>-4.176272913539422</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.24296077514309</v>
+        <v>-11.29510692238561</v>
       </c>
     </row>
   </sheetData>
